--- a/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
+++ b/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="432">
   <si>
     <t>Path</t>
   </si>
@@ -378,6 +378,9 @@
     <t>30525-0</t>
   </si>
   <si>
+    <t>1732</t>
+  </si>
+  <si>
     <t>WhoCrSurveillanceDataDictionary.patientInfo.birthSex</t>
   </si>
   <si>
@@ -1155,10 +1158,13 @@
     <t>Has the outcome section been submitted?</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetYesNoPartial</t>
+    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetSubmitted</t>
   </si>
   <si>
     <t>outcome_submitted</t>
+  </si>
+  <si>
+    <t>308552006</t>
   </si>
   <si>
     <t>WhoCrSurveillanceDataDictionary.outcome.submissionDate</t>
@@ -2981,7 +2987,7 @@
         <v>114</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>52</v>
@@ -3001,7 +3007,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3024,13 +3030,13 @@
         <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3057,14 +3063,14 @@
         <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>44</v>
@@ -3079,7 +3085,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>45</v>
@@ -3094,13 +3100,13 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>52</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3146,10 +3152,10 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3200,7 +3206,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>45</v>
@@ -3241,7 +3247,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3267,10 +3273,10 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3319,7 +3325,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>45</v>
@@ -3334,7 +3340,7 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>52</v>
@@ -3360,7 +3366,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3386,10 +3392,10 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3440,7 +3446,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>45</v>
@@ -3455,13 +3461,13 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>52</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3507,10 +3513,10 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3561,7 +3567,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>45</v>
@@ -3602,7 +3608,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3628,10 +3634,10 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3680,7 +3686,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>45</v>
@@ -3695,13 +3701,13 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>52</v>
@@ -3721,7 +3727,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3747,10 +3753,10 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3801,7 +3807,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>45</v>
@@ -3842,7 +3848,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3868,10 +3874,10 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3922,7 +3928,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>45</v>
@@ -3963,7 +3969,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3989,10 +3995,10 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4043,7 +4049,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>45</v>
@@ -4058,7 +4064,7 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>52</v>
@@ -4084,7 +4090,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4110,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4164,7 +4170,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>45</v>
@@ -4205,7 +4211,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4231,10 +4237,10 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4270,7 +4276,7 @@
         <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>44</v>
@@ -4285,7 +4291,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>45</v>
@@ -4300,10 +4306,10 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>52</v>
@@ -4326,7 +4332,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4349,13 +4355,13 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4382,11 +4388,11 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4404,7 +4410,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>45</v>
@@ -4419,13 +4425,13 @@
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>52</v>
@@ -4445,7 +4451,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4468,13 +4474,13 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4501,14 +4507,14 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>44</v>
@@ -4523,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>45</v>
@@ -4538,13 +4544,13 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>52</v>
@@ -4564,7 +4570,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4590,10 +4596,10 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4629,7 +4635,7 @@
         <v>44</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>44</v>
@@ -4644,7 +4650,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>45</v>
@@ -4659,13 +4665,13 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>52</v>
@@ -4685,7 +4691,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4708,13 +4714,13 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4741,14 +4747,14 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>44</v>
@@ -4763,7 +4769,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>45</v>
@@ -4778,13 +4784,13 @@
         <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>52</v>
@@ -4804,7 +4810,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4827,13 +4833,13 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4860,11 +4866,11 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4882,7 +4888,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>45</v>
@@ -4897,13 +4903,13 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>52</v>
@@ -4923,7 +4929,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4946,13 +4952,13 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4979,11 +4985,11 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5001,7 +5007,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>45</v>
@@ -5016,13 +5022,13 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>52</v>
@@ -5042,7 +5048,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5065,13 +5071,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5098,11 +5104,11 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5120,7 +5126,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>45</v>
@@ -5135,13 +5141,13 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>52</v>
@@ -5161,7 +5167,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5187,10 +5193,10 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5241,7 +5247,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>45</v>
@@ -5256,13 +5262,13 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>52</v>
@@ -5282,7 +5288,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5308,10 +5314,10 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5362,7 +5368,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>45</v>
@@ -5377,7 +5383,7 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>52</v>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5426,13 +5432,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5459,14 +5465,14 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>44</v>
@@ -5481,7 +5487,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>45</v>
@@ -5496,13 +5502,13 @@
         <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>52</v>
@@ -5522,7 +5528,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5545,13 +5551,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5587,7 +5593,7 @@
         <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>44</v>
@@ -5602,7 +5608,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>45</v>
@@ -5617,13 +5623,13 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>52</v>
@@ -5643,7 +5649,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5666,13 +5672,13 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5699,14 +5705,14 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>44</v>
@@ -5721,7 +5727,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>45</v>
@@ -5736,13 +5742,13 @@
         <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>52</v>
@@ -5762,7 +5768,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5785,13 +5791,13 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5842,7 +5848,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>45</v>
@@ -5857,13 +5863,13 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>52</v>
@@ -5883,7 +5889,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5906,13 +5912,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5963,7 +5969,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>45</v>
@@ -5978,13 +5984,13 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>52</v>
@@ -6004,7 +6010,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6027,13 +6033,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6084,7 +6090,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>45</v>
@@ -6099,13 +6105,13 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>52</v>
@@ -6125,7 +6131,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6148,13 +6154,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6205,7 +6211,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>45</v>
@@ -6220,13 +6226,13 @@
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>52</v>
@@ -6246,7 +6252,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6269,13 +6275,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6326,7 +6332,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>45</v>
@@ -6341,13 +6347,13 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>52</v>
@@ -6367,7 +6373,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6390,13 +6396,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6447,7 +6453,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>45</v>
@@ -6462,13 +6468,13 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>52</v>
@@ -6488,7 +6494,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6511,13 +6517,13 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6568,7 +6574,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>45</v>
@@ -6583,13 +6589,13 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>52</v>
@@ -6609,7 +6615,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6632,13 +6638,13 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6689,7 +6695,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>45</v>
@@ -6704,13 +6710,13 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>52</v>
@@ -6730,7 +6736,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6753,13 +6759,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6810,7 +6816,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>45</v>
@@ -6825,13 +6831,13 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>52</v>
@@ -6851,7 +6857,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6877,10 +6883,10 @@
         <v>56</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6931,7 +6937,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>45</v>
@@ -6946,7 +6952,7 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>52</v>
@@ -6972,7 +6978,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6998,10 +7004,10 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7052,7 +7058,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>45</v>
@@ -7093,7 +7099,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7119,10 +7125,10 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7173,7 +7179,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>45</v>
@@ -7214,7 +7220,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7240,10 +7246,10 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7294,7 +7300,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>45</v>
@@ -7335,7 +7341,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7358,13 +7364,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7391,14 +7397,14 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>44</v>
@@ -7413,7 +7419,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>45</v>
@@ -7428,13 +7434,13 @@
         <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>52</v>
@@ -7454,7 +7460,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7480,10 +7486,10 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7532,7 +7538,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>45</v>
@@ -7547,13 +7553,13 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>52</v>
@@ -7573,7 +7579,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7599,10 +7605,10 @@
         <v>56</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7653,7 +7659,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>45</v>
@@ -7668,13 +7674,13 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>52</v>
@@ -7694,7 +7700,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7720,10 +7726,10 @@
         <v>56</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7774,7 +7780,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>45</v>
@@ -7789,13 +7795,13 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>52</v>
@@ -7815,7 +7821,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7841,10 +7847,10 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7895,7 +7901,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>45</v>
@@ -7936,7 +7942,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7959,13 +7965,13 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7992,11 +7998,11 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -8014,7 +8020,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>45</v>
@@ -8029,13 +8035,13 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>52</v>
@@ -8055,7 +8061,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8081,10 +8087,10 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8135,7 +8141,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>45</v>
@@ -8176,7 +8182,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8202,10 +8208,10 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8239,7 +8245,7 @@
         <v>83</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>44</v>
@@ -8254,7 +8260,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>45</v>
@@ -8269,13 +8275,13 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>52</v>
@@ -8295,7 +8301,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8321,10 +8327,10 @@
         <v>56</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8360,7 +8366,7 @@
         <v>44</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>44</v>
@@ -8375,7 +8381,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>45</v>
@@ -8390,13 +8396,13 @@
         <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>52</v>
@@ -8416,7 +8422,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8442,10 +8448,10 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8481,7 +8487,7 @@
         <v>44</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>44</v>
@@ -8496,7 +8502,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>45</v>
@@ -8511,13 +8517,13 @@
         <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>52</v>
@@ -8537,7 +8543,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8560,13 +8566,13 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8593,11 +8599,11 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8615,7 +8621,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>45</v>
@@ -8630,13 +8636,13 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>52</v>
@@ -8656,7 +8662,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8679,13 +8685,13 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8712,11 +8718,11 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8734,7 +8740,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>45</v>
@@ -8749,13 +8755,13 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>52</v>
@@ -8775,7 +8781,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8801,10 +8807,10 @@
         <v>56</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8855,7 +8861,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>45</v>
@@ -8870,7 +8876,7 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>52</v>
@@ -8896,7 +8902,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8922,10 +8928,10 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8976,7 +8982,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>45</v>
@@ -9017,7 +9023,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9043,10 +9049,10 @@
         <v>102</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9082,7 +9088,7 @@
         <v>44</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>44</v>
@@ -9097,7 +9103,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>45</v>
@@ -9112,10 +9118,10 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>52</v>
@@ -9138,7 +9144,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9164,10 +9170,10 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9218,7 +9224,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>45</v>
@@ -9233,7 +9239,7 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>52</v>
@@ -9259,7 +9265,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9285,10 +9291,10 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9339,7 +9345,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>45</v>
@@ -9354,10 +9360,10 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>52</v>
@@ -9380,7 +9386,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9406,10 +9412,10 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9458,7 +9464,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>45</v>
@@ -9473,10 +9479,10 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>52</v>
@@ -9499,7 +9505,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9525,10 +9531,10 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9579,7 +9585,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>45</v>
@@ -9620,7 +9626,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9646,10 +9652,10 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9676,11 +9682,11 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9698,7 +9704,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>45</v>
@@ -9713,7 +9719,7 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>52</v>
@@ -9731,7 +9737,7 @@
         <v>52</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>52</v>
+        <v>372</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>44</v>
@@ -9739,7 +9745,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9765,10 +9771,10 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9819,7 +9825,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>45</v>
@@ -9834,7 +9840,7 @@
         <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>52</v>
@@ -9860,7 +9866,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9883,13 +9889,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9916,11 +9922,11 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9938,7 +9944,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>45</v>
@@ -9953,7 +9959,7 @@
         <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>52</v>
@@ -9979,7 +9985,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10005,10 +10011,10 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10059,7 +10065,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>45</v>
@@ -10074,10 +10080,10 @@
         <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>52</v>
@@ -10100,7 +10106,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10126,10 +10132,10 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10180,7 +10186,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>45</v>
@@ -10221,7 +10227,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10244,13 +10250,13 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10277,11 +10283,11 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10299,7 +10305,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>45</v>
@@ -10314,7 +10320,7 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>52</v>
@@ -10340,7 +10346,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10366,10 +10372,10 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10420,7 +10426,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>45</v>
@@ -10435,7 +10441,7 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>52</v>
@@ -10461,7 +10467,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10484,13 +10490,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10517,11 +10523,11 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10539,7 +10545,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>45</v>
@@ -10554,7 +10560,7 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>52</v>
@@ -10580,7 +10586,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10603,13 +10609,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10636,11 +10642,11 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>44</v>
@@ -10658,7 +10664,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>45</v>
@@ -10673,7 +10679,7 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>52</v>
@@ -10699,7 +10705,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10722,13 +10728,13 @@
         <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10755,11 +10761,11 @@
         <v>44</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>44</v>
@@ -10777,7 +10783,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>45</v>
@@ -10792,7 +10798,7 @@
         <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>52</v>
@@ -10818,7 +10824,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10841,13 +10847,13 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10874,30 +10880,30 @@
         <v>44</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AF78" t="s" s="2">
         <v>45</v>
       </c>
@@ -10911,13 +10917,13 @@
         <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>52</v>
@@ -10937,7 +10943,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10963,10 +10969,10 @@
         <v>56</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11017,7 +11023,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>45</v>
@@ -11032,7 +11038,7 @@
         <v>44</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>52</v>
@@ -11058,7 +11064,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11084,10 +11090,10 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11138,7 +11144,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>45</v>
@@ -11153,7 +11159,7 @@
         <v>44</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>52</v>
@@ -11179,7 +11185,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11205,10 +11211,10 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11259,7 +11265,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>45</v>
@@ -11274,7 +11280,7 @@
         <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>52</v>
@@ -11300,7 +11306,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11323,13 +11329,13 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11356,30 +11362,30 @@
         <v>44</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AF82" t="s" s="2">
         <v>45</v>
       </c>
@@ -11393,7 +11399,7 @@
         <v>44</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>52</v>
@@ -11419,7 +11425,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11442,13 +11448,13 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11499,7 +11505,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>45</v>
@@ -11514,7 +11520,7 @@
         <v>44</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>52</v>
@@ -11540,7 +11546,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11563,13 +11569,13 @@
         <v>44</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11596,11 +11602,11 @@
         <v>44</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>44</v>
@@ -11618,7 +11624,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>45</v>
@@ -11633,7 +11639,7 @@
         <v>44</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>52</v>

--- a/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
+++ b/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="435">
   <si>
     <t>Path</t>
   </si>
@@ -440,6 +440,9 @@
     <t>Administrative level 1: First sub-national boundary (e.g. province, state, territory prefecture, region, etc.) where the case was diagnosed.</t>
   </si>
   <si>
+    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetAdmin1</t>
+  </si>
+  <si>
     <t>patinfo_idadmin1</t>
   </si>
   <si>
@@ -1058,7 +1061,13 @@
     <t>165833</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.caseContact</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact</t>
+  </si>
+  <si>
+    <t>Patient exposure to confirmed cases</t>
+  </si>
+  <si>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.hadContact</t>
   </si>
   <si>
     <t>Has the patient had contact with a confirmed case?</t>
@@ -1073,25 +1082,13 @@
     <t>162633</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.contactSetting</t>
-  </si>
-  <si>
-    <t>Explain contact setting</t>
-  </si>
-  <si>
-    <t>If the patient has had contact with a confirmed case in the 14 days prior to symptom onset, explain contact setting</t>
-  </si>
-  <si>
-    <t>expo_case_setting_detail</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.contact</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact</t>
   </si>
   <si>
     <t>Confirmed case contact</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.contact.identifier</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.identifier</t>
   </si>
   <si>
     <t>ID number of confirmed case</t>
@@ -1110,7 +1107,7 @@
     <t>94657-4</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.contact.exposureFirstDate</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposureFirstDate</t>
   </si>
   <si>
     <t>Date of first exposure to confirmed case</t>
@@ -1119,7 +1116,7 @@
     <t>expo_case_date_firstX</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.contact.exposureLastDate</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposureLastDate</t>
   </si>
   <si>
     <t>Date of last exposure to confirmed case</t>
@@ -1131,7 +1128,19 @@
     <t>95386-9</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.contactCountry</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.setting</t>
+  </si>
+  <si>
+    <t>Explain contact setting</t>
+  </si>
+  <si>
+    <t>If the patient has had contact with a confirmed case in the 14 days prior to symptom onset, explain contact setting</t>
+  </si>
+  <si>
+    <t>expo_case_setting_detail</t>
+  </si>
+  <si>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.country</t>
   </si>
   <si>
     <t>Likely country for exposure to case?</t>
@@ -1284,7 +1293,7 @@
     <t>outcome_patcourse_status_other</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.outcome.outcomeDate</t>
+    <t>WhoCrSurveillanceDataDictionary.outcome.patientCourse.statusDate</t>
   </si>
   <si>
     <t>Date of patient release or date of death</t>
@@ -1491,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ84"/>
+  <dimension ref="A1:AQ85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3422,13 +3431,11 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3461,13 +3468,13 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>52</v>
@@ -3487,7 +3494,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3513,10 +3520,10 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3567,7 +3574,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>45</v>
@@ -3608,7 +3615,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3634,10 +3641,10 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3686,7 +3693,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>45</v>
@@ -3701,13 +3708,13 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>52</v>
@@ -3727,7 +3734,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3753,10 +3760,10 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3807,7 +3814,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>45</v>
@@ -3848,7 +3855,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3874,10 +3881,10 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3928,7 +3935,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>45</v>
@@ -3969,7 +3976,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3995,10 +4002,10 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4049,7 +4056,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>45</v>
@@ -4064,7 +4071,7 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>52</v>
@@ -4090,7 +4097,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4116,10 +4123,10 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4170,7 +4177,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>45</v>
@@ -4211,7 +4218,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4237,10 +4244,10 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4276,7 +4283,7 @@
         <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>44</v>
@@ -4291,7 +4298,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>45</v>
@@ -4306,10 +4313,10 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>52</v>
@@ -4332,7 +4339,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4358,10 +4365,10 @@
         <v>117</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4392,7 +4399,7 @@
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4410,7 +4417,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>45</v>
@@ -4425,13 +4432,13 @@
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>52</v>
@@ -4451,7 +4458,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4477,10 +4484,10 @@
         <v>117</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4511,10 +4518,10 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>44</v>
@@ -4529,7 +4536,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>45</v>
@@ -4544,13 +4551,13 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>52</v>
@@ -4570,7 +4577,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4596,10 +4603,10 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4635,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>44</v>
@@ -4650,7 +4657,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>45</v>
@@ -4665,13 +4672,13 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>52</v>
@@ -4691,7 +4698,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4717,10 +4724,10 @@
         <v>117</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4751,10 +4758,10 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>44</v>
@@ -4769,7 +4776,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>45</v>
@@ -4784,13 +4791,13 @@
         <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>52</v>
@@ -4810,7 +4817,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4836,10 +4843,10 @@
         <v>117</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4870,7 +4877,7 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4888,7 +4895,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>45</v>
@@ -4903,13 +4910,13 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>52</v>
@@ -4929,7 +4936,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4955,10 +4962,10 @@
         <v>117</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4989,7 +4996,7 @@
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5007,7 +5014,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>45</v>
@@ -5022,13 +5029,13 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>52</v>
@@ -5048,7 +5055,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5074,10 +5081,10 @@
         <v>117</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5108,7 +5115,7 @@
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5126,7 +5133,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>45</v>
@@ -5141,13 +5148,13 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>52</v>
@@ -5167,7 +5174,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5193,10 +5200,10 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5247,7 +5254,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>45</v>
@@ -5262,13 +5269,13 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>52</v>
@@ -5288,7 +5295,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5314,10 +5321,10 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5368,7 +5375,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>45</v>
@@ -5383,7 +5390,7 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>52</v>
@@ -5409,7 +5416,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5435,10 +5442,10 @@
         <v>117</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5469,10 +5476,10 @@
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>44</v>
@@ -5487,7 +5494,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>45</v>
@@ -5502,13 +5509,13 @@
         <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>52</v>
@@ -5528,7 +5535,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5551,13 +5558,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5593,7 +5600,7 @@
         <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>44</v>
@@ -5608,7 +5615,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>45</v>
@@ -5623,13 +5630,13 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>52</v>
@@ -5649,7 +5656,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5675,10 +5682,10 @@
         <v>117</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5709,10 +5716,10 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>44</v>
@@ -5727,7 +5734,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>45</v>
@@ -5742,13 +5749,13 @@
         <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>52</v>
@@ -5768,7 +5775,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5791,13 +5798,13 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5848,7 +5855,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>45</v>
@@ -5863,13 +5870,13 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>52</v>
@@ -5889,7 +5896,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5912,13 +5919,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5969,7 +5976,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>45</v>
@@ -5984,13 +5991,13 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>52</v>
@@ -6010,7 +6017,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6033,13 +6040,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6090,7 +6097,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>45</v>
@@ -6105,13 +6112,13 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>52</v>
@@ -6131,7 +6138,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6154,13 +6161,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6211,7 +6218,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>45</v>
@@ -6226,13 +6233,13 @@
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>52</v>
@@ -6252,7 +6259,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6275,13 +6282,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6332,7 +6339,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>45</v>
@@ -6347,13 +6354,13 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>52</v>
@@ -6373,7 +6380,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6396,13 +6403,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6453,7 +6460,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>45</v>
@@ -6468,13 +6475,13 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>52</v>
@@ -6494,7 +6501,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6517,13 +6524,13 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6574,7 +6581,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>45</v>
@@ -6589,13 +6596,13 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>52</v>
@@ -6615,7 +6622,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6638,13 +6645,13 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6695,7 +6702,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>45</v>
@@ -6710,13 +6717,13 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>52</v>
@@ -6736,7 +6743,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6759,13 +6766,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6816,7 +6823,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>45</v>
@@ -6831,13 +6838,13 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>52</v>
@@ -6857,7 +6864,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6883,10 +6890,10 @@
         <v>56</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6937,7 +6944,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>45</v>
@@ -6952,7 +6959,7 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>52</v>
@@ -6978,7 +6985,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7004,10 +7011,10 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7058,7 +7065,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>45</v>
@@ -7099,7 +7106,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7125,10 +7132,10 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7179,7 +7186,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>45</v>
@@ -7220,7 +7227,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7246,10 +7253,10 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7300,7 +7307,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>45</v>
@@ -7341,7 +7348,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7367,10 +7374,10 @@
         <v>117</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7401,10 +7408,10 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>44</v>
@@ -7419,7 +7426,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>45</v>
@@ -7434,13 +7441,13 @@
         <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>52</v>
@@ -7460,7 +7467,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7486,10 +7493,10 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7538,7 +7545,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>45</v>
@@ -7553,13 +7560,13 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>52</v>
@@ -7579,7 +7586,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7605,10 +7612,10 @@
         <v>56</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7659,7 +7666,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>45</v>
@@ -7674,13 +7681,13 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>52</v>
@@ -7700,7 +7707,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7726,10 +7733,10 @@
         <v>56</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7780,7 +7787,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>45</v>
@@ -7795,13 +7802,13 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>52</v>
@@ -7821,7 +7828,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7847,10 +7854,10 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7901,7 +7908,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>45</v>
@@ -7942,7 +7949,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7968,10 +7975,10 @@
         <v>117</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8002,7 +8009,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -8020,7 +8027,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>45</v>
@@ -8035,13 +8042,13 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>52</v>
@@ -8061,7 +8068,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8087,10 +8094,10 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8141,7 +8148,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>45</v>
@@ -8182,7 +8189,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8208,10 +8215,10 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8245,7 +8252,7 @@
         <v>83</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>44</v>
@@ -8260,7 +8267,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>45</v>
@@ -8275,13 +8282,13 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>52</v>
@@ -8301,7 +8308,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8327,10 +8334,10 @@
         <v>56</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8366,7 +8373,7 @@
         <v>44</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>44</v>
@@ -8381,7 +8388,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>45</v>
@@ -8396,13 +8403,13 @@
         <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>52</v>
@@ -8422,7 +8429,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8448,10 +8455,10 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8487,7 +8494,7 @@
         <v>44</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>44</v>
@@ -8502,7 +8509,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>45</v>
@@ -8517,13 +8524,13 @@
         <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>52</v>
@@ -8543,7 +8550,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8569,10 +8576,10 @@
         <v>117</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8603,7 +8610,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8621,7 +8628,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>45</v>
@@ -8636,13 +8643,13 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>52</v>
@@ -8662,7 +8669,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8685,10 +8692,10 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>339</v>
@@ -8718,11 +8725,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8740,7 +8749,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>45</v>
@@ -8755,13 +8764,13 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>341</v>
+        <v>52</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>52</v>
@@ -8781,7 +8790,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8804,13 +8813,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8837,13 +8846,11 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8861,7 +8868,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>45</v>
@@ -8876,13 +8883,13 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>52</v>
@@ -8902,7 +8909,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8928,10 +8935,10 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8982,7 +8989,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>45</v>
@@ -9023,7 +9030,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9049,10 +9056,10 @@
         <v>102</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9088,40 +9095,40 @@
         <v>44</v>
       </c>
       <c r="Z63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AA63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
+      <c r="AK63" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>52</v>
@@ -9144,7 +9151,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9170,10 +9177,10 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9224,7 +9231,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>45</v>
@@ -9239,7 +9246,7 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>52</v>
@@ -9265,7 +9272,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9291,10 +9298,10 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9345,7 +9352,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>45</v>
@@ -9360,10 +9367,10 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>52</v>
@@ -9386,7 +9393,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9409,13 +9416,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9442,11 +9449,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9464,7 +9473,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>45</v>
@@ -9479,10 +9488,10 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>365</v>
+        <v>52</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>52</v>
@@ -9505,7 +9514,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9528,13 +9537,13 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9561,13 +9570,11 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9585,7 +9592,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>45</v>
@@ -9600,10 +9607,10 @@
         <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>52</v>
+        <v>367</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>52</v>
+        <v>368</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>52</v>
@@ -9626,7 +9633,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9649,13 +9656,13 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9682,11 +9689,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9704,7 +9713,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>45</v>
@@ -9719,7 +9728,7 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>371</v>
+        <v>52</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>52</v>
@@ -9737,7 +9746,7 @@
         <v>52</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>372</v>
+        <v>52</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>44</v>
@@ -9745,7 +9754,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9768,13 +9777,13 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9801,13 +9810,11 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9825,7 +9832,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>45</v>
@@ -9840,25 +9847,25 @@
         <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>44</v>
@@ -9889,13 +9896,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>377</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9922,11 +9929,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y70" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9959,7 +9968,7 @@
         <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>52</v>
@@ -9985,7 +9994,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10008,13 +10017,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10041,13 +10050,11 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -10065,7 +10072,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>45</v>
@@ -10080,10 +10087,10 @@
         <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>52</v>
@@ -10106,7 +10113,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10129,10 +10136,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>385</v>
@@ -10186,7 +10193,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>45</v>
@@ -10201,10 +10208,10 @@
         <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>52</v>
+        <v>386</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>52</v>
@@ -10227,7 +10234,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10250,10 +10257,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>388</v>
@@ -10283,11 +10290,13 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X73" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y73" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10305,7 +10314,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>45</v>
@@ -10320,7 +10329,7 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>389</v>
+        <v>52</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>52</v>
@@ -10346,7 +10355,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10369,13 +10378,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10402,13 +10411,11 @@
         <v>44</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>44</v>
@@ -10426,7 +10433,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>45</v>
@@ -10441,7 +10448,7 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>52</v>
@@ -10467,7 +10474,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10490,10 +10497,10 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>395</v>
@@ -10523,11 +10530,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X75" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y75" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10545,7 +10554,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>45</v>
@@ -10612,7 +10621,7 @@
         <v>117</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>398</v>
@@ -10646,7 +10655,7 @@
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>44</v>
@@ -10731,7 +10740,7 @@
         <v>117</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>401</v>
@@ -10765,7 +10774,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>44</v>
@@ -10850,7 +10859,7 @@
         <v>117</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>404</v>
+        <v>193</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>404</v>
@@ -10884,7 +10893,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>405</v>
+        <v>163</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>44</v>
@@ -10917,13 +10926,13 @@
         <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>407</v>
+        <v>52</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>408</v>
+        <v>52</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>52</v>
@@ -10943,7 +10952,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10966,13 +10975,13 @@
         <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10999,13 +11008,11 @@
         <v>44</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>44</v>
@@ -11023,28 +11030,28 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
+      <c r="AK79" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>52</v>
@@ -11087,13 +11094,13 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>413</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11159,7 +11166,7 @@
         <v>44</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>52</v>
@@ -11185,7 +11192,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11211,10 +11218,10 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11265,7 +11272,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>45</v>
@@ -11280,7 +11287,7 @@
         <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>52</v>
@@ -11306,7 +11313,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11329,10 +11336,10 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>421</v>
@@ -11362,44 +11369,46 @@
         <v>44</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X82" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>52</v>
@@ -11425,7 +11434,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11448,13 +11457,13 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>425</v>
+        <v>117</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11481,13 +11490,11 @@
         <v>44</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X83" s="2"/>
       <c r="Y83" t="s" s="2">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>44</v>
@@ -11505,7 +11512,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>45</v>
@@ -11520,7 +11527,7 @@
         <v>44</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>52</v>
@@ -11546,7 +11553,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11569,10 +11576,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>117</v>
+        <v>428</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>430</v>
@@ -11602,11 +11609,13 @@
         <v>44</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X84" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y84" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>44</v>
@@ -11624,7 +11633,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>45</v>
@@ -11663,8 +11672,127 @@
         <v>44</v>
       </c>
     </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="X85" s="2"/>
+      <c r="Y85" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AQ85" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ84">
+  <autoFilter ref="A1:AQ85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11674,7 +11802,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
+++ b/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="436">
   <si>
     <t>Path</t>
   </si>
@@ -908,7 +908,16 @@
     <t>5619</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.workCountry</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.workFacility</t>
+  </si>
+  <si>
+    <t>Healthcare worker facility details</t>
+  </si>
+  <si>
+    <t>165655</t>
+  </si>
+  <si>
+    <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.workFacility.country</t>
   </si>
   <si>
     <t>Healthcare worker country</t>
@@ -920,10 +929,7 @@
     <t>patinfo_occuhcw_country</t>
   </si>
   <si>
-    <t>165655</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.workCity</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.workFacility.city</t>
   </si>
   <si>
     <t>Healthcare worker city</t>
@@ -938,7 +944,7 @@
     <t>165654</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.facilityName</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.workFacility.facilityName</t>
   </si>
   <si>
     <t>Healthcare worker facility name</t>
@@ -1284,15 +1290,6 @@
     <t>159640</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.outcome.patientCourse.statusOther</t>
-  </si>
-  <si>
-    <t>Other patient status (outcome)</t>
-  </si>
-  <si>
-    <t>outcome_patcourse_status_other</t>
-  </si>
-  <si>
     <t>WhoCrSurveillanceDataDictionary.outcome.patientCourse.statusDate</t>
   </si>
   <si>
@@ -1305,22 +1302,28 @@
     <t>outcome_date_of_outcome</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.outcome.labDate</t>
-  </si>
-  <si>
-    <t>If released, date of last laboratory test</t>
-  </si>
-  <si>
-    <t>If released from hospital /isolation, date of last laboratory test</t>
+    <t>WhoCrSurveillanceDataDictionary.outcome.lab</t>
+  </si>
+  <si>
+    <t>If released, details of last laboratory test</t>
+  </si>
+  <si>
+    <t>If released from hospital /isolation, details of last laboratory test</t>
+  </si>
+  <si>
+    <t>WhoCrSurveillanceDataDictionary.outcome.lab.date</t>
+  </si>
+  <si>
+    <t>Date of last laboratory test</t>
   </si>
   <si>
     <t>outcome_lab_date</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.outcome.labResult</t>
-  </si>
-  <si>
-    <t>laboratory result from last test</t>
+    <t>WhoCrSurveillanceDataDictionary.outcome.lab.result</t>
+  </si>
+  <si>
+    <t>Result of last test</t>
   </si>
   <si>
     <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetTestResult</t>
@@ -1332,7 +1335,7 @@
     <t>WhoCrSurveillanceDataDictionary.outcome.contactsFollowed</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt
+    <t xml:space="preserve">unsignedInt
 </t>
   </si>
   <si>
@@ -1500,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ85"/>
+  <dimension ref="A1:AQ86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1509,7 +1512,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.80078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.7421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1539,7 +1542,7 @@
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="75.80078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="79.7421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -7478,7 +7481,7 @@
         <v>45</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
@@ -7490,13 +7493,13 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>289</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7523,11 +7526,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7551,7 +7556,7 @@
         <v>45</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7560,13 +7565,13 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>52</v>
@@ -7586,7 +7591,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7609,13 +7614,13 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7642,13 +7647,11 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7666,7 +7669,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>45</v>
@@ -7681,13 +7684,13 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>52</v>
@@ -7707,7 +7710,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7733,10 +7736,10 @@
         <v>56</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7787,28 +7790,28 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>52</v>
@@ -7828,7 +7831,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7851,13 +7854,13 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7908,28 +7911,28 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>52</v>
+        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>52</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7972,10 +7975,10 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>307</v>
@@ -8005,11 +8008,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -8027,7 +8032,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>45</v>
@@ -8042,13 +8047,13 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>308</v>
+        <v>52</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>309</v>
+        <v>52</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>52</v>
@@ -8068,7 +8073,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8079,7 +8084,7 @@
         <v>45</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -8091,13 +8096,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8124,13 +8129,11 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8148,28 +8151,28 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>52</v>
+        <v>311</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>52</v>
@@ -8189,7 +8192,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8200,7 +8203,7 @@
         <v>45</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -8212,13 +8215,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8245,14 +8248,16 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>44</v>
@@ -8267,13 +8272,13 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
@@ -8282,13 +8287,13 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>318</v>
+        <v>52</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>52</v>
@@ -8308,7 +8313,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8331,13 +8336,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8364,16 +8369,14 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>44</v>
@@ -8388,28 +8391,28 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="AL57" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>52</v>
@@ -8429,7 +8432,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8452,13 +8455,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8494,7 +8497,7 @@
         <v>44</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>44</v>
@@ -8509,28 +8512,28 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AL58" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>52</v>
@@ -8550,7 +8553,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8573,13 +8576,13 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8606,14 +8609,16 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>44</v>
@@ -8628,28 +8633,28 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AF59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="AL59" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>52</v>
@@ -8669,7 +8674,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8692,13 +8697,13 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8725,13 +8730,11 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8749,28 +8752,28 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AF60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>52</v>
+        <v>339</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>52</v>
@@ -8813,13 +8816,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>341</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8846,11 +8849,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8883,13 +8888,13 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>343</v>
+        <v>52</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>344</v>
+        <v>52</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>52</v>
@@ -8909,7 +8914,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8920,7 +8925,7 @@
         <v>45</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8932,13 +8937,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8965,13 +8970,11 @@
         <v>44</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>44</v>
@@ -8989,28 +8992,28 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AF62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="AK62" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>52</v>
+        <v>346</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>52</v>
@@ -9041,7 +9044,7 @@
         <v>45</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
@@ -9053,13 +9056,13 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>348</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9095,7 +9098,7 @@
         <v>44</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>44</v>
@@ -9116,7 +9119,7 @@
         <v>45</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
@@ -9125,10 +9128,10 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>351</v>
+        <v>52</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>52</v>
@@ -9151,7 +9154,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9174,13 +9177,13 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9216,7 +9219,7 @@
         <v>44</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>44</v>
@@ -9231,25 +9234,25 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AF64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AK64" t="s" s="2">
-        <v>52</v>
+        <v>354</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>52</v>
@@ -9272,7 +9275,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9298,10 +9301,10 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9352,7 +9355,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>45</v>
@@ -9367,10 +9370,10 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>359</v>
+        <v>52</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>52</v>
@@ -9393,7 +9396,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9416,13 +9419,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9473,25 +9476,25 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AF66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AK66" t="s" s="2">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>52</v>
@@ -9514,7 +9517,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9537,13 +9540,13 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9570,11 +9573,13 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9592,7 +9597,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>45</v>
@@ -9607,10 +9612,10 @@
         <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>52</v>
@@ -9633,7 +9638,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9656,13 +9661,13 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9689,13 +9694,11 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9713,25 +9716,25 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="AK68" t="s" s="2">
-        <v>52</v>
+        <v>370</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>52</v>
@@ -9777,7 +9780,7 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>372</v>
@@ -9810,11 +9813,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9847,7 +9852,7 @@
         <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>374</v>
+        <v>52</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>52</v>
@@ -9865,7 +9870,7 @@
         <v>52</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>375</v>
+        <v>52</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>44</v>
@@ -9873,7 +9878,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9896,13 +9901,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9929,13 +9934,11 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9953,23 +9956,23 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AK70" t="s" s="2">
         <v>52</v>
       </c>
@@ -9986,7 +9989,7 @@
         <v>52</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>52</v>
+        <v>377</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>44</v>
@@ -9994,7 +9997,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10017,13 +10020,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10050,11 +10053,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -10072,7 +10077,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>45</v>
@@ -10087,7 +10092,7 @@
         <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>52</v>
@@ -10113,7 +10118,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10136,13 +10141,13 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10169,13 +10174,11 @@
         <v>44</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>44</v>
@@ -10193,7 +10196,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>45</v>
@@ -10208,10 +10211,10 @@
         <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>52</v>
@@ -10234,7 +10237,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10257,13 +10260,13 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10314,7 +10317,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>45</v>
@@ -10329,10 +10332,10 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>52</v>
@@ -10378,13 +10381,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>390</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10411,11 +10414,13 @@
         <v>44</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y74" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>44</v>
@@ -10448,7 +10453,7 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>392</v>
+        <v>52</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>52</v>
@@ -10474,7 +10479,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10497,13 +10502,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10530,13 +10535,11 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10554,7 +10557,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>45</v>
@@ -10569,7 +10572,7 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>52</v>
@@ -10595,7 +10598,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10618,13 +10621,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>181</v>
+        <v>396</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10651,11 +10654,13 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X76" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y76" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>44</v>
@@ -10673,7 +10678,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>45</v>
@@ -10688,7 +10693,7 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>52</v>
@@ -10714,7 +10719,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10740,10 +10745,10 @@
         <v>117</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10792,7 +10797,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>45</v>
@@ -10807,7 +10812,7 @@
         <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>52</v>
@@ -10833,7 +10838,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10859,10 +10864,10 @@
         <v>117</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10911,7 +10916,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>45</v>
@@ -10926,7 +10931,7 @@
         <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>52</v>
@@ -10952,7 +10957,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10978,10 +10983,10 @@
         <v>117</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>407</v>
+        <v>193</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11012,7 +11017,7 @@
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>408</v>
+        <v>163</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>44</v>
@@ -11030,7 +11035,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>45</v>
@@ -11045,13 +11050,13 @@
         <v>44</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>410</v>
+        <v>52</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>411</v>
+        <v>52</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>52</v>
@@ -11071,7 +11076,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11094,13 +11099,13 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11127,13 +11132,11 @@
         <v>44</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -11151,28 +11154,28 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="AL80" t="s" s="2">
-        <v>52</v>
+        <v>413</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>52</v>
@@ -11192,7 +11195,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11218,10 +11221,10 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11272,7 +11275,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>45</v>
@@ -11287,7 +11290,7 @@
         <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>52</v>
@@ -11313,7 +11316,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11336,13 +11339,13 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11393,7 +11396,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>45</v>
@@ -11408,7 +11411,7 @@
         <v>44</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>422</v>
+        <v>52</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>52</v>
@@ -11434,7 +11437,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11457,13 +11460,13 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11490,11 +11493,13 @@
         <v>44</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X83" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y83" t="s" s="2">
-        <v>425</v>
+        <v>44</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>44</v>
@@ -11512,22 +11517,22 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>52</v>
@@ -11553,7 +11558,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11576,13 +11581,13 @@
         <v>44</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>428</v>
+        <v>117</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11609,13 +11614,11 @@
         <v>44</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>44</v>
@@ -11633,22 +11636,22 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>52</v>
@@ -11674,7 +11677,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11697,13 +11700,13 @@
         <v>44</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>117</v>
+        <v>429</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11730,69 +11733,190 @@
         <v>44</v>
       </c>
       <c r="W85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AQ85" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W86" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="X85" s="2"/>
-      <c r="Y85" t="s" s="2">
+      <c r="X86" s="2"/>
+      <c r="Y86" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ85" t="s" s="2">
+      <c r="Z86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AQ86" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ85">
+  <autoFilter ref="A1:AQ86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11802,7 +11926,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
+++ b/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="439">
   <si>
     <t>Path</t>
   </si>
@@ -1033,13 +1033,17 @@
     <t>165645</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.travel.location.departureDate</t>
-  </si>
-  <si>
-    <t>Date of departure</t>
-  </si>
-  <si>
-    <t>Specify date of departure from this location</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.travel.location.locationPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Dates at location (including date of departure)</t>
+  </si>
+  <si>
+    <t>Specify dates at this location</t>
   </si>
   <si>
     <t xml:space="preserve">http://loinc.org#91560-3
@@ -1116,6 +1120,10 @@
     <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposureFirstDate</t>
   </si>
   <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
     <t>Date of first exposure to confirmed case</t>
   </si>
   <si>
@@ -1141,6 +1149,9 @@
   </si>
   <si>
     <t>If the patient has had contact with a confirmed case in the 14 days prior to symptom onset, explain contact setting</t>
+  </si>
+  <si>
+    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetContactSetting</t>
   </si>
   <si>
     <t>expo_case_setting_detail</t>
@@ -8576,13 +8587,13 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8618,7 +8629,7 @@
         <v>44</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>44</v>
@@ -8648,13 +8659,13 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>52</v>
@@ -8674,7 +8685,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8700,10 +8711,10 @@
         <v>117</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8752,7 +8763,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>45</v>
@@ -8767,13 +8778,13 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>52</v>
@@ -8793,7 +8804,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8819,10 +8830,10 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8873,7 +8884,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>45</v>
@@ -8914,7 +8925,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8940,10 +8951,10 @@
         <v>117</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8992,7 +9003,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>45</v>
@@ -9007,13 +9018,13 @@
         <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>52</v>
@@ -9033,7 +9044,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9059,10 +9070,10 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9113,7 +9124,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>45</v>
@@ -9154,7 +9165,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9180,10 +9191,10 @@
         <v>102</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9219,7 +9230,7 @@
         <v>44</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>44</v>
@@ -9234,7 +9245,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>45</v>
@@ -9249,10 +9260,10 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>52</v>
@@ -9275,7 +9286,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9298,13 +9309,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9355,7 +9366,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>45</v>
@@ -9370,7 +9381,7 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>52</v>
@@ -9396,7 +9407,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9419,13 +9430,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9476,7 +9487,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>45</v>
@@ -9491,10 +9502,10 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>52</v>
@@ -9517,7 +9528,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9540,13 +9551,13 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9573,13 +9584,11 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9597,7 +9606,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>45</v>
@@ -9612,7 +9621,7 @@
         <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>52</v>
@@ -9638,7 +9647,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9664,10 +9673,10 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9716,7 +9725,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>45</v>
@@ -9731,10 +9740,10 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>52</v>
@@ -9757,7 +9766,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9783,10 +9792,10 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9837,7 +9846,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>45</v>
@@ -9878,7 +9887,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9904,10 +9913,10 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9938,7 +9947,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9956,7 +9965,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>45</v>
@@ -9971,7 +9980,7 @@
         <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>52</v>
@@ -9989,7 +9998,7 @@
         <v>52</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>44</v>
@@ -9997,7 +10006,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10023,10 +10032,10 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10077,7 +10086,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>45</v>
@@ -10092,7 +10101,7 @@
         <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>52</v>
@@ -10118,7 +10127,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10144,10 +10153,10 @@
         <v>117</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10196,7 +10205,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>45</v>
@@ -10211,7 +10220,7 @@
         <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>52</v>
@@ -10237,7 +10246,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10263,10 +10272,10 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10317,7 +10326,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>45</v>
@@ -10332,7 +10341,7 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>159</v>
@@ -10358,7 +10367,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10384,10 +10393,10 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10438,7 +10447,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>45</v>
@@ -10479,7 +10488,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10505,10 +10514,10 @@
         <v>117</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10542,7 +10551,7 @@
         <v>163</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>44</v>
@@ -10557,7 +10566,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>45</v>
@@ -10572,10 +10581,10 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>52</v>
@@ -10598,7 +10607,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10624,10 +10633,10 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10663,7 +10672,7 @@
         <v>44</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>44</v>
@@ -10678,7 +10687,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>45</v>
@@ -10693,10 +10702,10 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>52</v>
@@ -10719,7 +10728,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10748,7 +10757,7 @@
         <v>181</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10782,7 +10791,7 @@
         <v>163</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>44</v>
@@ -10797,7 +10806,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>45</v>
@@ -10812,10 +10821,10 @@
         <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>52</v>
@@ -10838,7 +10847,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10867,7 +10876,7 @@
         <v>188</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10916,7 +10925,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>45</v>
@@ -10931,7 +10940,7 @@
         <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>52</v>
@@ -10957,7 +10966,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10986,7 +10995,7 @@
         <v>193</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11035,7 +11044,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>45</v>
@@ -11050,7 +11059,7 @@
         <v>44</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>52</v>
@@ -11076,7 +11085,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11102,10 +11111,10 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11136,7 +11145,7 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -11154,7 +11163,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>45</v>
@@ -11169,13 +11178,13 @@
         <v>44</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>52</v>
@@ -11195,7 +11204,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11221,10 +11230,10 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11275,7 +11284,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>45</v>
@@ -11290,7 +11299,7 @@
         <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>52</v>
@@ -11316,7 +11325,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11342,10 +11351,10 @@
         <v>72</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11396,7 +11405,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>45</v>
@@ -11437,7 +11446,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11463,10 +11472,10 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11517,7 +11526,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>45</v>
@@ -11532,7 +11541,7 @@
         <v>44</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>52</v>
@@ -11558,7 +11567,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11584,10 +11593,10 @@
         <v>117</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11618,7 +11627,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>44</v>
@@ -11636,7 +11645,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>45</v>
@@ -11651,7 +11660,7 @@
         <v>44</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>52</v>
@@ -11677,7 +11686,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11700,13 +11709,13 @@
         <v>44</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11757,7 +11766,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>45</v>
@@ -11772,7 +11781,7 @@
         <v>44</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>52</v>
@@ -11798,7 +11807,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11824,10 +11833,10 @@
         <v>117</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11876,7 +11885,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>45</v>
@@ -11891,7 +11900,7 @@
         <v>44</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>52</v>

--- a/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
+++ b/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="391">
   <si>
     <t>Path</t>
   </si>
@@ -267,17 +267,17 @@
 </t>
   </si>
   <si>
-    <t>Reporting country</t>
-  </si>
-  <si>
-    <t>Country/territory/national boundary within which the case currently/usually resides.
+    <t>Reporting country (admin level 0)</t>
+  </si>
+  <si>
+    <t>Country/territory/national boundary (admin level 0) within which the case currently/usually resides.
 If transborders or international spread of outbreak</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetAdmin0</t>
+    <t>http://hl7.org/fhir/ValueSet/iso3166-1-2</t>
   </si>
   <si>
     <t>report_country</t>
@@ -295,7 +295,7 @@
     <t>Why the case was tested for COVID-19</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetReasonForCovid19Testing</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetReasonForCovid19Testing</t>
   </si>
   <si>
     <t xml:space="preserve">http://loinc.org#67098-4
@@ -397,7 +397,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetSexAtBirth</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetSexAtBirth</t>
   </si>
   <si>
     <t xml:space="preserve">http://loinc.org#76689-9
@@ -419,28 +419,28 @@
     <t>Details of the diagnosis of the case</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.patientInfo.identified.admin0</t>
-  </si>
-  <si>
-    <t>Where the case was diagnosed, admin level 0 (country)</t>
-  </si>
-  <si>
-    <t>Administrative level 0: Country where the case was diagnosed.</t>
+    <t>WhoCrSurveillanceDataDictionary.patientInfo.identified.country</t>
+  </si>
+  <si>
+    <t>Country (admin level 0) where the case was diagnosed</t>
+  </si>
+  <si>
+    <t>Country (administrative level 0) where the case was diagnosed.</t>
   </si>
   <si>
     <t>patinfo_idadmin0</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.patientInfo.identified.admin1</t>
-  </si>
-  <si>
-    <t>Where the case was diagnosed, admin level 1 (country)</t>
-  </si>
-  <si>
-    <t>Administrative level 1: First sub-national boundary (e.g. province, state, territory prefecture, region, etc.) where the case was diagnosed.</t>
-  </si>
-  <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetAdmin1</t>
+    <t>WhoCrSurveillanceDataDictionary.patientInfo.identified.subnational</t>
+  </si>
+  <si>
+    <t>Province, state, canton, etc. (admin level 1) where the case was diagnosed.</t>
+  </si>
+  <si>
+    <t>First sub-national boundary (e.g. province, state, territory, prefecture, region, etc.) (administrative level 1) where the case was diagnosed.</t>
+  </si>
+  <si>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetAdmin1</t>
   </si>
   <si>
     <t>patinfo_idadmin1</t>
@@ -455,13 +455,13 @@
     <t>Details of the residence of the case</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.patientInfo.residence.admin0</t>
-  </si>
-  <si>
-    <t>Place of residence admin level 0</t>
-  </si>
-  <si>
-    <t>Administrative level 0: Country within which the case's currently/usually resides.</t>
+    <t>WhoCrSurveillanceDataDictionary.patientInfo.residence.country</t>
+  </si>
+  <si>
+    <t>Country (admin level 0) of residence</t>
+  </si>
+  <si>
+    <t>Country (administrative level 0) within which the case's currently/usually resides.</t>
   </si>
   <si>
     <t>patinfo_resadmin0</t>
@@ -525,7 +525,7 @@
     <t>Is the case asymptomatic?</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetYesNoUnk</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetYesNoUnk</t>
   </si>
   <si>
     <t>patcourse_asymp</t>
@@ -666,7 +666,7 @@
     <t>Conditions and co-morbidities of the case</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.present</t>
+    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.any</t>
   </si>
   <si>
     <t>Does the patient have any underlying conditions?</t>
@@ -685,30 +685,19 @@
     <t>162747</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.pregnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Pregnancy?</t>
-  </si>
-  <si>
-    <t>Is the patient pregnant?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://loinc.org#82810-3
-</t>
-  </si>
-  <si>
-    <t>Comcond_preg</t>
-  </si>
-  <si>
-    <t>82810-3</t>
-  </si>
-  <si>
-    <t>1434</t>
+    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.present</t>
+  </si>
+  <si>
+    <t>Co-morbidity or condition present</t>
+  </si>
+  <si>
+    <t>Co-morbidities or conditions is the case known to have. Note that limited inferences may be made about conditions not asserted: the patient may not have the condition; the submitter (or patient) may not know if the patient has the condition; at the time the response was submitted, the condition was not included in the list.</t>
+  </si>
+  <si>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetComorbidity</t>
+  </si>
+  <si>
+    <t>Comcond_other</t>
   </si>
   <si>
     <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.pregnantTrimester</t>
@@ -717,7 +706,7 @@
     <t>Trimester of pregancy</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetPregnancyTrimester</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetPregnancyTrimester</t>
   </si>
   <si>
     <t xml:space="preserve">http://loinc.org#32418-6
@@ -733,141 +722,6 @@
     <t>160665</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.postpartum</t>
-  </si>
-  <si>
-    <t>Post-partum (&lt;6 weeks)</t>
-  </si>
-  <si>
-    <t>Is the patient in the post-partum period defined as less than 6 weeks after delivery date?</t>
-  </si>
-  <si>
-    <t>Comcond_partum</t>
-  </si>
-  <si>
-    <t>129317</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.immunodeficiency</t>
-  </si>
-  <si>
-    <t>Immunodeficiency including HIV?</t>
-  </si>
-  <si>
-    <t>Has the patient an acquired immunodeficiency (HIV) or is the patient treated with drugs that decreased immune response (corticoides, anti cancer chemotherapy)?</t>
-  </si>
-  <si>
-    <t>Comcond_immuno</t>
-  </si>
-  <si>
-    <t>117277</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.cardiovacsular</t>
-  </si>
-  <si>
-    <t>Cardiovacsular disease including hypertension?</t>
-  </si>
-  <si>
-    <t>any cardiovacsular disease?</t>
-  </si>
-  <si>
-    <t>Comcond_cardi</t>
-  </si>
-  <si>
-    <t>119270</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.diabetes</t>
-  </si>
-  <si>
-    <t>Diabetes?</t>
-  </si>
-  <si>
-    <t>Comcond_diabetes</t>
-  </si>
-  <si>
-    <t>119481</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.liver</t>
-  </si>
-  <si>
-    <t>Liver disease?</t>
-  </si>
-  <si>
-    <t>any liver diseases</t>
-  </si>
-  <si>
-    <t>Comcond_liver</t>
-  </si>
-  <si>
-    <t>6032</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.renal</t>
-  </si>
-  <si>
-    <t>Renal disease?</t>
-  </si>
-  <si>
-    <t>any renal diseases?</t>
-  </si>
-  <si>
-    <t>Comcond_renal</t>
-  </si>
-  <si>
-    <t>6033</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.neuro</t>
-  </si>
-  <si>
-    <t>Chronic neurological or neuromuscular disease</t>
-  </si>
-  <si>
-    <t>Comcond_neuro</t>
-  </si>
-  <si>
-    <t>165646</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.malignancy</t>
-  </si>
-  <si>
-    <t>Malignancy</t>
-  </si>
-  <si>
-    <t>Comcond_malig</t>
-  </si>
-  <si>
-    <t>116031</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.lung</t>
-  </si>
-  <si>
-    <t>Chronic lung disease?</t>
-  </si>
-  <si>
-    <t>Comcond_lung</t>
-  </si>
-  <si>
-    <t>155569</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.clinicalStatus.comorbidities.other</t>
-  </si>
-  <si>
-    <t>Other, specify?</t>
-  </si>
-  <si>
-    <t>Describe other underlying conditions and comorbidity</t>
-  </si>
-  <si>
-    <t>Comcond_other</t>
-  </si>
-  <si>
     <t>WhoCrSurveillanceDataDictionary.exposure</t>
   </si>
   <si>
@@ -1151,7 +1005,7 @@
     <t>If the patient has had contact with a confirmed case in the 14 days prior to symptom onset, explain contact setting</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetContactSetting</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetContactSetting</t>
   </si>
   <si>
     <t>expo_case_setting_detail</t>
@@ -1184,7 +1038,7 @@
     <t>Has the outcome section been submitted?</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetSubmitted</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetSubmitted</t>
   </si>
   <si>
     <t>outcome_submitted</t>
@@ -1289,7 +1143,7 @@
     <t>Patient status (outcome)</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetPatientOutcome</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetPatientOutcome</t>
   </si>
   <si>
     <t>outcome_patcourse_status</t>
@@ -1337,7 +1191,7 @@
     <t>Result of last test</t>
   </si>
   <si>
-    <t>http://www.example.com/fhir/cr/covid19/ValueSet/WhoCrValueSetTestResult</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetTestResult</t>
   </si>
   <si>
     <t>outcome_lab_result</t>
@@ -1514,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ86"/>
+  <dimension ref="A1:AQ76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1547,7 +1401,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.75" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="23.7890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -5557,10 +5411,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5572,13 +5426,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5605,16 +5459,14 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>44</v>
@@ -5632,10 +5484,10 @@
         <v>215</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
@@ -5644,13 +5496,13 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>52</v>
@@ -5670,7 +5522,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5696,10 +5548,10 @@
         <v>117</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5730,46 +5582,46 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>52</v>
@@ -5789,7 +5641,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5812,13 +5664,13 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5869,7 +5721,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>45</v>
@@ -5884,13 +5736,13 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>52</v>
@@ -5910,7 +5762,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5933,13 +5785,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5990,7 +5842,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>45</v>
@@ -6005,13 +5857,13 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>52</v>
@@ -6031,7 +5883,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6054,13 +5906,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6111,7 +5963,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>45</v>
@@ -6126,13 +5978,13 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>52</v>
@@ -6152,7 +6004,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6175,13 +6027,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6208,16 +6060,14 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>44</v>
@@ -6232,7 +6082,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>45</v>
@@ -6247,13 +6097,13 @@
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>52</v>
@@ -6273,7 +6123,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6284,7 +6134,7 @@
         <v>45</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6296,13 +6146,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6353,13 +6203,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6368,13 +6218,13 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>52</v>
@@ -6394,7 +6244,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6417,13 +6267,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6450,13 +6300,11 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -6474,7 +6322,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>45</v>
@@ -6489,13 +6337,13 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>52</v>
@@ -6515,7 +6363,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6538,13 +6386,13 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6595,7 +6443,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>45</v>
@@ -6610,13 +6458,13 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>52</v>
@@ -6636,7 +6484,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6659,13 +6507,13 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6716,7 +6564,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>45</v>
@@ -6731,13 +6579,13 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>52</v>
@@ -6757,7 +6605,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6780,13 +6628,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6837,7 +6685,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>45</v>
@@ -6852,13 +6700,13 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>52</v>
@@ -6878,7 +6726,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6901,13 +6749,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6934,13 +6782,11 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6958,7 +6804,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>45</v>
@@ -6973,13 +6819,13 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>52</v>
@@ -6999,7 +6845,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7010,7 +6856,7 @@
         <v>45</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -7025,10 +6871,10 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7079,13 +6925,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -7120,7 +6966,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7143,13 +6989,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7176,16 +7022,14 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>44</v>
@@ -7200,7 +7044,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>45</v>
@@ -7215,13 +7059,13 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>52</v>
@@ -7241,7 +7085,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7264,13 +7108,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7306,7 +7150,7 @@
         <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>44</v>
@@ -7321,28 +7165,28 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="AL48" t="s" s="2">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>52</v>
@@ -7385,13 +7229,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7418,14 +7262,16 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>44</v>
@@ -7455,13 +7301,13 @@
         <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>52</v>
@@ -7481,7 +7327,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7492,7 +7338,7 @@
         <v>45</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
@@ -7504,13 +7350,13 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7537,13 +7383,11 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7561,13 +7405,13 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7576,13 +7420,13 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>52</v>
+        <v>291</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>52</v>
@@ -7602,7 +7446,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7625,13 +7469,13 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7658,11 +7502,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7680,7 +7526,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>45</v>
@@ -7695,13 +7541,13 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>52</v>
@@ -7744,7 +7590,7 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>296</v>
@@ -7777,13 +7623,11 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7853,7 +7697,7 @@
         <v>45</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7865,13 +7709,13 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>301</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7928,7 +7772,7 @@
         <v>45</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7937,13 +7781,13 @@
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>52</v>
@@ -7963,7 +7807,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7986,13 +7830,13 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8028,7 +7872,7 @@
         <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>44</v>
@@ -8043,7 +7887,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>45</v>
@@ -8058,10 +7902,10 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>52</v>
+        <v>307</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>52</v>
@@ -8107,13 +7951,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8140,11 +7984,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8177,13 +8023,13 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>52</v>
@@ -8214,7 +8060,7 @@
         <v>45</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -8226,13 +8072,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>313</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8289,7 +8135,7 @@
         <v>45</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
@@ -8298,10 +8144,10 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>52</v>
+        <v>314</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>52</v>
+        <v>315</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>52</v>
@@ -8324,7 +8170,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8350,10 +8196,10 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8384,10 +8230,10 @@
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>44</v>
@@ -8402,7 +8248,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>45</v>
@@ -8417,13 +8263,13 @@
         <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>320</v>
+        <v>52</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>52</v>
@@ -8443,7 +8289,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8466,13 +8312,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8499,52 +8345,50 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Z58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AL58" t="s" s="2">
-        <v>328</v>
+        <v>52</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>52</v>
@@ -8564,7 +8408,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8587,13 +8431,13 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8629,7 +8473,7 @@
         <v>44</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>44</v>
@@ -8644,7 +8488,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>45</v>
@@ -8659,13 +8503,13 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>52</v>
@@ -8685,7 +8529,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8708,13 +8552,13 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8745,7 +8589,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8763,7 +8607,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>45</v>
@@ -8778,13 +8622,13 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>52</v>
@@ -8796,7 +8640,7 @@
         <v>52</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>52</v>
+        <v>332</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>44</v>
@@ -8804,7 +8648,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8827,13 +8671,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8884,7 +8728,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>45</v>
@@ -8899,7 +8743,7 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>52</v>
+        <v>335</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>52</v>
@@ -8925,7 +8769,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8951,10 +8795,10 @@
         <v>117</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9003,7 +8847,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>45</v>
@@ -9018,13 +8862,13 @@
         <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>347</v>
+        <v>52</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>52</v>
@@ -9044,7 +8888,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9055,7 +8899,7 @@
         <v>45</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
@@ -9067,13 +8911,13 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9124,13 +8968,13 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
@@ -9139,10 +8983,10 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>52</v>
@@ -9165,7 +9009,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9188,13 +9032,13 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9230,7 +9074,7 @@
         <v>44</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>44</v>
@@ -9245,7 +9089,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>45</v>
@@ -9260,10 +9104,10 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>355</v>
+        <v>52</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>52</v>
@@ -9286,7 +9130,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9309,13 +9153,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>357</v>
+        <v>117</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9342,16 +9186,14 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>44</v>
@@ -9366,7 +9208,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>45</v>
@@ -9381,10 +9223,10 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>52</v>
@@ -9407,7 +9249,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9430,13 +9272,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9472,7 +9314,7 @@
         <v>44</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>44</v>
@@ -9487,7 +9329,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>45</v>
@@ -9502,10 +9344,10 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>363</v>
+        <v>178</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>52</v>
@@ -9528,7 +9370,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9551,13 +9393,13 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9584,14 +9426,14 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>44</v>
@@ -9606,7 +9448,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>45</v>
@@ -9621,10 +9463,10 @@
         <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>52</v>
@@ -9647,7 +9489,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9670,13 +9512,13 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9703,11 +9545,11 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9725,7 +9567,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>45</v>
@@ -9740,10 +9582,10 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>373</v>
+        <v>52</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>52</v>
@@ -9766,7 +9608,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9789,13 +9631,13 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>375</v>
+        <v>193</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9822,13 +9664,11 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9846,7 +9686,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>45</v>
@@ -9861,7 +9701,7 @@
         <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>52</v>
@@ -9887,7 +9727,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9913,10 +9753,10 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9943,11 +9783,11 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9965,7 +9805,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>45</v>
@@ -9980,13 +9820,13 @@
         <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>52</v>
+        <v>367</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>52</v>
+        <v>368</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>52</v>
@@ -9998,7 +9838,7 @@
         <v>52</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>380</v>
+        <v>52</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>44</v>
@@ -10006,7 +9846,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10032,10 +9872,10 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10086,7 +9926,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>45</v>
@@ -10101,7 +9941,7 @@
         <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>52</v>
@@ -10127,7 +9967,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10150,13 +9990,13 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10183,11 +10023,13 @@
         <v>44</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X72" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y72" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>44</v>
@@ -10205,7 +10047,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>45</v>
@@ -10220,7 +10062,7 @@
         <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>387</v>
+        <v>52</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>52</v>
@@ -10246,7 +10088,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10272,10 +10114,10 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10326,7 +10168,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>45</v>
@@ -10341,10 +10183,10 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>52</v>
@@ -10367,7 +10209,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10390,13 +10232,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10423,13 +10265,11 @@
         <v>44</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>44</v>
@@ -10447,7 +10287,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>45</v>
@@ -10462,7 +10302,7 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>52</v>
+        <v>382</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>52</v>
@@ -10488,7 +10328,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10511,13 +10351,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>117</v>
+        <v>384</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10544,14 +10384,16 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X75" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y75" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>44</v>
@@ -10566,7 +10408,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>45</v>
@@ -10581,10 +10423,10 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>52</v>
@@ -10607,7 +10449,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10630,13 +10472,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10663,16 +10505,14 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>44</v>
@@ -10687,7 +10527,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>45</v>
@@ -10702,10 +10542,10 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>52</v>
@@ -10723,1209 +10563,11 @@
         <v>52</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X77" s="2"/>
-      <c r="Y77" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ77" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X78" s="2"/>
-      <c r="Y78" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ78" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X79" s="2"/>
-      <c r="Y79" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ79" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X80" s="2"/>
-      <c r="Y80" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ80" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ81" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ82" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ83" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X84" s="2"/>
-      <c r="Y84" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ84" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ85" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X86" s="2"/>
-      <c r="Y86" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ86" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ86">
+  <autoFilter ref="A1:AQ76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11935,7 +10577,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
+++ b/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="392">
   <si>
     <t>Path</t>
   </si>
@@ -971,23 +971,19 @@
     <t>94657-4</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposureFirstDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date of first exposure to confirmed case</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposure</t>
+  </si>
+  <si>
+    <t>Details of exposure to confirmed case</t>
   </si>
   <si>
     <t>expo_case_date_firstX</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposureLastDate</t>
-  </si>
-  <si>
-    <t>Date of last exposure to confirmed case</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposure.period</t>
+  </si>
+  <si>
+    <t>Dates of exposure to confirmed case</t>
   </si>
   <si>
     <t>expo_case_date_lastX</t>
@@ -996,7 +992,7 @@
     <t>95386-9</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.setting</t>
+    <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposure.setting</t>
   </si>
   <si>
     <t>Explain contact setting</t>
@@ -1197,23 +1193,29 @@
     <t>outcome_lab_result</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.outcome.contactsFollowed</t>
+    <t>WhoCrSurveillanceDataDictionary.outcome.contacts</t>
+  </si>
+  <si>
+    <t>High risk contacts followed from case</t>
+  </si>
+  <si>
+    <t>High risk contacts followed from this case</t>
+  </si>
+  <si>
+    <t>WhoCrSurveillanceDataDictionary.outcome.contacts.count</t>
   </si>
   <si>
     <t xml:space="preserve">unsignedInt
 </t>
   </si>
   <si>
-    <t>High risk contacts followed from case</t>
-  </si>
-  <si>
     <t>Total number of high-risk contacts followed for this case</t>
   </si>
   <si>
     <t>outcome_contacts_followed</t>
   </si>
   <si>
-    <t>WhoCrSurveillanceDataDictionary.outcome.contactsFollowedUnknown</t>
+    <t>WhoCrSurveillanceDataDictionary.outcome.contacts.countUnknown</t>
   </si>
   <si>
     <t>Number of high risk contacts followed unknown</t>
@@ -1368,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ76"/>
+  <dimension ref="A1:AQ77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7939,7 +7941,7 @@
         <v>45</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7951,13 +7953,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K55" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="L55" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8014,7 +8016,7 @@
         <v>45</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8023,7 +8025,7 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>52</v>
@@ -8049,7 +8051,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8072,13 +8074,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8129,7 +8131,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>45</v>
@@ -8144,10 +8146,10 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>52</v>
@@ -8170,7 +8172,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8196,10 +8198,10 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8230,40 +8232,40 @@
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>52</v>
@@ -8289,7 +8291,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8315,10 +8317,10 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8367,7 +8369,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>45</v>
@@ -8382,10 +8384,10 @@
         <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>52</v>
@@ -8408,7 +8410,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8434,10 +8436,10 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8488,7 +8490,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>45</v>
@@ -8529,7 +8531,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8555,10 +8557,10 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8589,58 +8591,58 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>44</v>
@@ -8648,7 +8650,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8674,10 +8676,10 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8728,7 +8730,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>45</v>
@@ -8743,7 +8745,7 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>52</v>
@@ -8769,7 +8771,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8795,10 +8797,10 @@
         <v>117</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8847,7 +8849,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>45</v>
@@ -8862,7 +8864,7 @@
         <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>52</v>
@@ -8888,7 +8890,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8914,10 +8916,10 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8968,7 +8970,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>45</v>
@@ -8983,7 +8985,7 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>159</v>
@@ -9009,7 +9011,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9035,10 +9037,10 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9089,7 +9091,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>45</v>
@@ -9130,7 +9132,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9156,10 +9158,10 @@
         <v>117</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9208,7 +9210,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>45</v>
@@ -9223,7 +9225,7 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>171</v>
@@ -9249,7 +9251,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9275,10 +9277,10 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9329,7 +9331,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>45</v>
@@ -9344,7 +9346,7 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>178</v>
@@ -9370,7 +9372,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9399,7 +9401,7 @@
         <v>181</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9448,7 +9450,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>45</v>
@@ -9463,7 +9465,7 @@
         <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>185</v>
@@ -9489,7 +9491,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9518,7 +9520,7 @@
         <v>188</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9567,7 +9569,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>45</v>
@@ -9582,7 +9584,7 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>52</v>
@@ -9608,7 +9610,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9637,7 +9639,7 @@
         <v>193</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9686,7 +9688,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>45</v>
@@ -9701,7 +9703,7 @@
         <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>52</v>
@@ -9727,7 +9729,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9753,10 +9755,10 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9787,46 +9789,46 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
+      <c r="AK70" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>52</v>
@@ -9846,7 +9848,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9872,10 +9874,10 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9926,7 +9928,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>45</v>
@@ -9941,7 +9943,7 @@
         <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>52</v>
@@ -9967,7 +9969,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9993,10 +9995,10 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10047,7 +10049,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>45</v>
@@ -10088,7 +10090,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10114,10 +10116,10 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10168,7 +10170,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>45</v>
@@ -10183,7 +10185,7 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>52</v>
@@ -10209,7 +10211,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10235,10 +10237,10 @@
         <v>117</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10269,40 +10271,40 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>52</v>
@@ -10328,7 +10330,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10351,13 +10353,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10408,7 +10410,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>45</v>
@@ -10423,7 +10425,7 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>387</v>
+        <v>52</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>52</v>
@@ -10449,7 +10451,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10472,13 +10474,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>117</v>
+        <v>386</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10505,69 +10507,190 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AQ76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="X76" s="2"/>
-      <c r="Y76" t="s" s="2">
+      <c r="X77" s="2"/>
+      <c r="Y77" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ76" t="s" s="2">
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AQ77" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ76">
+  <autoFilter ref="A1:AQ77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10577,7 +10700,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
+++ b/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="426">
   <si>
     <t>Path</t>
   </si>
@@ -257,7 +257,14 @@
     <t>Date of reporting</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#77995-9
+</t>
+  </si>
+  <si>
     <t>report_date</t>
+  </si>
+  <si>
+    <t>77995-9</t>
   </si>
   <si>
     <t>WhoCrSurveillanceDataDictionary.report.country</t>
@@ -280,6 +287,10 @@
     <t>http://hl7.org/fhir/ValueSet/iso3166-1-2</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#77983-5
+</t>
+  </si>
+  <si>
     <t>report_country</t>
   </si>
   <si>
@@ -302,25 +313,10 @@
 </t>
   </si>
   <si>
-    <t>report_test_reason</t>
+    <t>report_test_reason_other</t>
   </si>
   <si>
     <t>67098-4</t>
-  </si>
-  <si>
-    <t>164126</t>
-  </si>
-  <si>
-    <t>WhoCrSurveillanceDataDictionary.report.testReasonOther</t>
-  </si>
-  <si>
-    <t>Other reason the case was tested for COVID-19</t>
-  </si>
-  <si>
-    <t>Any other reason the case was tested for COVID-19</t>
-  </si>
-  <si>
-    <t>report_test_reason_other</t>
   </si>
   <si>
     <t>163761</t>
@@ -428,9 +424,16 @@
     <t>Country (administrative level 0) where the case was diagnosed.</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96546-7
+</t>
+  </si>
+  <si>
     <t>patinfo_idadmin0</t>
   </si>
   <si>
+    <t>96546-7</t>
+  </si>
+  <si>
     <t>WhoCrSurveillanceDataDictionary.patientInfo.identified.subnational</t>
   </si>
   <si>
@@ -443,7 +446,14 @@
     <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetAdmin1</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96547-5
+</t>
+  </si>
+  <si>
     <t>patinfo_idadmin1</t>
+  </si>
+  <si>
+    <t>96547-5</t>
   </si>
   <si>
     <t>165851</t>
@@ -609,9 +619,16 @@
     <t>Was the patient ever ventilated for this episode at time of reporting?</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96539-2
+</t>
+  </si>
+  <si>
     <t>patcourse_vent</t>
   </si>
   <si>
+    <t>96539-2</t>
+  </si>
+  <si>
     <t>165647</t>
   </si>
   <si>
@@ -624,9 +641,16 @@
     <t>Did the patient receive extracorporeal membrane oxygenation (ECMO)?</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96540-0
+</t>
+  </si>
+  <si>
     <t>patcourse_ecmo</t>
   </si>
   <si>
+    <t>96540-0</t>
+  </si>
+  <si>
     <t>165643</t>
   </si>
   <si>
@@ -639,9 +663,16 @@
     <t>Was the case isolated with proper IPC controls implemented?</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96548-3
+</t>
+  </si>
+  <si>
     <t>patcourse_iso</t>
   </si>
   <si>
+    <t>96548-3</t>
+  </si>
+  <si>
     <t>165795</t>
   </si>
   <si>
@@ -654,7 +685,14 @@
     <t>What date was the case isolated?</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96549-1
+</t>
+  </si>
+  <si>
     <t>patcourse_dateiso</t>
+  </si>
+  <si>
+    <t>96549-1</t>
   </si>
   <si>
     <t>165648</t>
@@ -780,9 +818,16 @@
     <t>If case is a healthcare worker, in which country do they work?</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#80437-7
+</t>
+  </si>
+  <si>
     <t>patinfo_occuhcw_country</t>
   </si>
   <si>
+    <t>80437-7</t>
+  </si>
+  <si>
     <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.workFacility.city</t>
   </si>
   <si>
@@ -792,9 +837,16 @@
     <t>If case is a healthcare worker, in which city do they work?</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#80431-0
+</t>
+  </si>
+  <si>
     <t>patinfo_occuhcw_city</t>
   </si>
   <si>
+    <t>80431-0</t>
+  </si>
+  <si>
     <t>165654</t>
   </si>
   <si>
@@ -807,9 +859,16 @@
     <t>If case is a healthcare worker, what is the name of the facility in which they work?</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#76696-4
+</t>
+  </si>
+  <si>
     <t>patinfo_occuhcw_name</t>
   </si>
   <si>
+    <t>76696-4</t>
+  </si>
+  <si>
     <t>162724</t>
   </si>
   <si>
@@ -828,7 +887,14 @@
     <t>Has the patient travelled in the 14 days prior to symptom onset?</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96542-6
+</t>
+  </si>
+  <si>
     <t>expo_travel</t>
+  </si>
+  <si>
+    <t>96542-6</t>
   </si>
   <si>
     <t>165656</t>
@@ -919,9 +985,16 @@
     <t>Has the patient visited any health care facilities in the 14 days prior to symptom onset</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96543-4
+</t>
+  </si>
+  <si>
     <t>expo_visit_healthcare</t>
   </si>
   <si>
+    <t>96543-4</t>
+  </si>
+  <si>
     <t>165833</t>
   </si>
   <si>
@@ -940,7 +1013,14 @@
     <t>Has the patient had contact with a confirmed case in the 14 days prior to disease onset?</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96544-2
+</t>
+  </si>
+  <si>
     <t>expo_contact_case</t>
+  </si>
+  <si>
+    <t>96544-2</t>
   </si>
   <si>
     <t>162633</t>
@@ -977,19 +1057,20 @@
     <t>Details of exposure to confirmed case</t>
   </si>
   <si>
-    <t>expo_case_date_firstX</t>
-  </si>
-  <si>
     <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposure.period</t>
   </si>
   <si>
     <t>Dates of exposure to confirmed case</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96545-9
+</t>
+  </si>
+  <si>
     <t>expo_case_date_lastX</t>
   </si>
   <si>
-    <t>95386-9</t>
+    <t>96545-9</t>
   </si>
   <si>
     <t>WhoCrSurveillanceDataDictionary.exposure.contact.contact.exposure.setting</t>
@@ -1004,9 +1085,16 @@
     <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetContactSetting</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#81267-7
+</t>
+  </si>
+  <si>
     <t>expo_case_setting_detail</t>
   </si>
   <si>
+    <t>81267-7</t>
+  </si>
+  <si>
     <t>WhoCrSurveillanceDataDictionary.exposure.contact.country</t>
   </si>
   <si>
@@ -1016,6 +1104,10 @@
     <t>Specify the location of possible exposure to a case</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#77984-3
+</t>
+  </si>
+  <si>
     <t>expo_case_location</t>
   </si>
   <si>
@@ -1049,9 +1141,16 @@
     <t>Date of outcome submission</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96553-3
+</t>
+  </si>
+  <si>
     <t>outcome_submitted_date</t>
   </si>
   <si>
+    <t>96553-3</t>
+  </si>
+  <si>
     <t>WhoCrSurveillanceDataDictionary.outcome.symptomatic</t>
   </si>
   <si>
@@ -1142,7 +1241,11 @@
     <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetPatientOutcome</t>
   </si>
   <si>
-    <t>outcome_patcourse_status</t>
+    <t xml:space="preserve">http://loinc.org#91541-3
+</t>
+  </si>
+  <si>
+    <t>outcome_patcourse_status_other</t>
   </si>
   <si>
     <t>91541-3</t>
@@ -1178,9 +1281,16 @@
     <t>Date of last laboratory test</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96550-9
+</t>
+  </si>
+  <si>
     <t>outcome_lab_date</t>
   </si>
   <si>
+    <t>96550-9</t>
+  </si>
+  <si>
     <t>WhoCrSurveillanceDataDictionary.outcome.lab.result</t>
   </si>
   <si>
@@ -1190,7 +1300,14 @@
     <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetTestResult</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96552-5
+</t>
+  </si>
+  <si>
     <t>outcome_lab_result</t>
+  </si>
+  <si>
+    <t>96552-5</t>
   </si>
   <si>
     <t>WhoCrSurveillanceDataDictionary.outcome.contacts</t>
@@ -1212,7 +1329,14 @@
     <t>Total number of high-risk contacts followed for this case</t>
   </si>
   <si>
+    <t xml:space="preserve">http://loinc.org#96551-7
+</t>
+  </si>
+  <si>
     <t>outcome_contacts_followed</t>
+  </si>
+  <si>
+    <t>96551-7</t>
   </si>
   <si>
     <t>WhoCrSurveillanceDataDictionary.outcome.contacts.countUnknown</t>
@@ -1370,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ77"/>
+  <dimension ref="A1:AQ76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2108,7 +2232,7 @@
         <v>44</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>44</v>
@@ -2138,10 +2262,10 @@
         <v>44</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>52</v>
@@ -2164,7 +2288,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2187,13 +2311,13 @@
         <v>44</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2220,14 +2344,14 @@
         <v>44</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>44</v>
@@ -2242,7 +2366,7 @@
         <v>44</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>45</v>
@@ -2257,13 +2381,13 @@
         <v>44</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>52</v>
@@ -2283,7 +2407,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2306,13 +2430,13 @@
         <v>44</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2339,30 +2463,30 @@
         <v>44</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Z8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AA8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AF8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2376,13 +2500,13 @@
         <v>44</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>52</v>
@@ -2402,7 +2526,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2425,13 +2549,13 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2482,7 +2606,7 @@
         <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>45</v>
@@ -2497,13 +2621,13 @@
         <v>44</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>52</v>
@@ -2515,7 +2639,7 @@
         <v>52</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AQ9" t="s" s="2">
         <v>44</v>
@@ -2546,13 +2670,13 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2588,7 +2712,7 @@
         <v>44</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>44</v>
@@ -2618,10 +2742,10 @@
         <v>44</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>52</v>
@@ -2644,7 +2768,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2667,13 +2791,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2709,7 +2833,7 @@
         <v>44</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>44</v>
@@ -2724,7 +2848,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>45</v>
@@ -2739,13 +2863,13 @@
         <v>44</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>52</v>
@@ -2754,7 +2878,7 @@
         <v>52</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>52</v>
@@ -2765,7 +2889,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2788,13 +2912,13 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2821,16 +2945,14 @@
         <v>44</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>44</v>
@@ -2845,7 +2967,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>45</v>
@@ -2860,13 +2982,13 @@
         <v>44</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>52</v>
@@ -2875,7 +2997,7 @@
         <v>52</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>52</v>
@@ -2886,7 +3008,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2909,13 +3031,13 @@
         <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2942,14 +3064,16 @@
         <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X13" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y13" t="s" s="2">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>44</v>
@@ -2964,7 +3088,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>45</v>
@@ -2979,13 +3103,13 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>52</v>
@@ -3028,13 +3152,13 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3061,16 +3185,14 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>44</v>
@@ -3100,10 +3222,10 @@
         <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>52</v>
@@ -3126,7 +3248,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3149,13 +3271,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3182,14 +3304,14 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>44</v>
@@ -3204,7 +3326,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>45</v>
@@ -3219,13 +3341,13 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>52</v>
@@ -3245,7 +3367,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3268,13 +3390,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3301,11 +3423,13 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3323,7 +3447,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>45</v>
@@ -3338,13 +3462,13 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>52</v>
@@ -3364,7 +3488,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3387,13 +3511,13 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3420,16 +3544,14 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>44</v>
@@ -3444,7 +3566,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>45</v>
@@ -3459,13 +3581,13 @@
         <v>44</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>52</v>
@@ -3485,7 +3607,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3508,13 +3630,13 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3541,11 +3663,13 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3563,7 +3687,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>45</v>
@@ -3578,13 +3702,13 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>52</v>
@@ -3604,7 +3728,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3630,10 +3754,10 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3684,7 +3808,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>45</v>
@@ -3725,7 +3849,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3748,13 +3872,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3805,7 +3929,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>45</v>
@@ -3820,7 +3944,7 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>52</v>
@@ -3846,7 +3970,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3869,13 +3993,13 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3926,7 +4050,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>45</v>
@@ -3941,7 +4065,7 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>52</v>
@@ -3967,7 +4091,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3990,13 +4114,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4032,7 +4156,7 @@
         <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>44</v>
@@ -4047,7 +4171,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>45</v>
@@ -4062,10 +4186,10 @@
         <v>44</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>52</v>
@@ -4088,7 +4212,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4111,13 +4235,13 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4144,16 +4268,14 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>44</v>
@@ -4168,7 +4290,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>45</v>
@@ -4183,13 +4305,13 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>52</v>
@@ -4209,7 +4331,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4232,13 +4354,13 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4265,14 +4387,14 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>44</v>
@@ -4287,7 +4409,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>45</v>
@@ -4302,13 +4424,13 @@
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>52</v>
@@ -4328,7 +4450,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4351,13 +4473,13 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4384,14 +4506,16 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>44</v>
@@ -4406,7 +4530,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>45</v>
@@ -4421,13 +4545,13 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>52</v>
@@ -4447,7 +4571,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4470,13 +4594,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4503,16 +4627,14 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>44</v>
@@ -4527,7 +4649,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>45</v>
@@ -4542,13 +4664,13 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>52</v>
@@ -4568,7 +4690,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4591,13 +4713,13 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4624,14 +4746,14 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>44</v>
@@ -4646,7 +4768,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>45</v>
@@ -4661,13 +4783,13 @@
         <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>52</v>
@@ -4687,7 +4809,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4710,13 +4832,13 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4743,14 +4865,14 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>44</v>
@@ -4765,7 +4887,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>45</v>
@@ -4780,13 +4902,13 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>52</v>
@@ -4806,7 +4928,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4829,13 +4951,13 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4862,14 +4984,14 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>44</v>
@@ -4884,7 +5006,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>45</v>
@@ -4899,13 +5021,13 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>52</v>
@@ -4925,7 +5047,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4948,13 +5070,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4981,14 +5103,16 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>44</v>
@@ -5003,7 +5127,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>45</v>
@@ -5018,13 +5142,13 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>52</v>
@@ -5044,7 +5168,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5067,13 +5191,13 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5124,7 +5248,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>45</v>
@@ -5139,13 +5263,13 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>52</v>
@@ -5165,7 +5289,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5188,13 +5312,13 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5221,16 +5345,14 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>44</v>
@@ -5245,7 +5367,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>45</v>
@@ -5260,13 +5382,13 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>52</v>
@@ -5286,7 +5408,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5294,10 +5416,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
@@ -5309,13 +5431,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5342,14 +5464,14 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>44</v>
@@ -5364,13 +5486,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5379,13 +5501,13 @@
         <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>52</v>
@@ -5405,7 +5527,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5413,10 +5535,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5428,13 +5550,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5461,14 +5583,14 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>44</v>
@@ -5483,13 +5605,13 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
@@ -5498,13 +5620,13 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>52</v>
@@ -5524,7 +5646,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5547,13 +5669,13 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5580,14 +5702,16 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>44</v>
@@ -5602,7 +5726,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>45</v>
@@ -5617,13 +5741,13 @@
         <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>52</v>
@@ -5643,7 +5767,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5669,10 +5793,10 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5723,7 +5847,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>45</v>
@@ -5764,7 +5888,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5790,10 +5914,10 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5844,7 +5968,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>45</v>
@@ -5885,7 +6009,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5908,13 +6032,13 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5941,16 +6065,14 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>44</v>
@@ -5965,7 +6087,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>45</v>
@@ -5980,13 +6102,13 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>52</v>
@@ -6006,7 +6128,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6017,7 +6139,7 @@
         <v>45</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -6029,13 +6151,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6062,14 +6184,16 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>44</v>
@@ -6084,13 +6208,13 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6099,13 +6223,13 @@
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>52</v>
@@ -6125,7 +6249,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6136,7 +6260,7 @@
         <v>45</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6148,13 +6272,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6181,16 +6305,14 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>44</v>
@@ -6205,13 +6327,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6220,13 +6342,13 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>52</v>
@@ -6246,7 +6368,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6269,13 +6391,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6302,14 +6424,16 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>44</v>
@@ -6324,7 +6448,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>45</v>
@@ -6339,13 +6463,13 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>52</v>
@@ -6365,7 +6489,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6391,10 +6515,10 @@
         <v>56</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6430,7 +6554,7 @@
         <v>44</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>44</v>
@@ -6445,7 +6569,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>45</v>
@@ -6460,13 +6584,13 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>52</v>
@@ -6486,7 +6610,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6509,13 +6633,13 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6566,7 +6690,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>45</v>
@@ -6581,13 +6705,13 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>256</v>
+        <v>52</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>52</v>
@@ -6607,7 +6731,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6630,13 +6754,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6663,16 +6787,14 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>44</v>
@@ -6687,7 +6809,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>45</v>
@@ -6702,13 +6824,13 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>52</v>
@@ -6728,7 +6850,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6739,7 +6861,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6751,13 +6873,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6784,11 +6906,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6806,13 +6930,13 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -6821,13 +6945,13 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>262</v>
+        <v>52</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>52</v>
@@ -6847,7 +6971,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6858,7 +6982,7 @@
         <v>45</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -6870,13 +6994,13 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6903,16 +7027,14 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>44</v>
@@ -6927,13 +7049,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6942,13 +7064,13 @@
         <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>52</v>
+        <v>291</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>52</v>
@@ -6968,7 +7090,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6991,13 +7113,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7024,14 +7146,16 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>44</v>
@@ -7046,7 +7170,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>45</v>
@@ -7061,13 +7185,13 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>52</v>
@@ -7087,7 +7211,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7110,13 +7234,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7152,7 +7276,7 @@
         <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>44</v>
@@ -7167,7 +7291,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>45</v>
@@ -7182,13 +7306,13 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>52</v>
@@ -7208,7 +7332,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7231,13 +7355,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>282</v>
+        <v>115</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7264,16 +7388,14 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>44</v>
@@ -7288,7 +7410,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>45</v>
@@ -7303,13 +7425,13 @@
         <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>52</v>
@@ -7329,7 +7451,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7352,13 +7474,13 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7385,11 +7507,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7407,7 +7531,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>45</v>
@@ -7422,13 +7546,13 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>52</v>
@@ -7448,7 +7572,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7471,13 +7595,13 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7504,16 +7628,14 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>44</v>
@@ -7528,7 +7650,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>45</v>
@@ -7543,13 +7665,13 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>52</v>
+        <v>319</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>52</v>
@@ -7569,7 +7691,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7580,7 +7702,7 @@
         <v>45</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7592,13 +7714,13 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7625,11 +7747,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X52" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y52" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7647,13 +7771,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7662,13 +7786,13 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>299</v>
+        <v>52</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>52</v>
@@ -7688,7 +7812,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7699,7 +7823,7 @@
         <v>45</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7711,13 +7835,13 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7753,7 +7877,7 @@
         <v>44</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>44</v>
@@ -7768,13 +7892,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7783,10 +7907,10 @@
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>52</v>
+        <v>329</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>52</v>
@@ -7809,7 +7933,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7820,7 +7944,7 @@
         <v>45</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7832,13 +7956,13 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7874,7 +7998,7 @@
         <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>44</v>
@@ -7889,13 +8013,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -7904,10 +8028,10 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>306</v>
+        <v>52</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>52</v>
@@ -7930,7 +8054,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7941,7 +8065,7 @@
         <v>45</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7953,13 +8077,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7995,7 +8119,7 @@
         <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>44</v>
@@ -8010,13 +8134,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8025,10 +8149,10 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>52</v>
@@ -8051,7 +8175,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8074,13 +8198,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8107,16 +8231,14 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>44</v>
@@ -8131,7 +8253,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>45</v>
@@ -8146,10 +8268,10 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>52</v>
@@ -8172,7 +8294,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8195,13 +8317,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8228,14 +8350,14 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>44</v>
@@ -8250,7 +8372,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>45</v>
@@ -8265,10 +8387,10 @@
         <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>52</v>
@@ -8291,7 +8413,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8314,13 +8436,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8347,11 +8469,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8369,7 +8493,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>45</v>
@@ -8384,10 +8508,10 @@
         <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>323</v>
+        <v>52</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>52</v>
@@ -8410,7 +8534,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8433,13 +8557,13 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8466,13 +8590,11 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8490,7 +8612,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>45</v>
@@ -8505,7 +8627,7 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>52</v>
+        <v>355</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>52</v>
@@ -8523,7 +8645,7 @@
         <v>52</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>44</v>
@@ -8531,7 +8653,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8554,13 +8676,13 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8587,14 +8709,16 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>44</v>
@@ -8609,7 +8733,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>45</v>
@@ -8624,10 +8748,10 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>52</v>
@@ -8642,7 +8766,7 @@
         <v>52</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>44</v>
@@ -8650,7 +8774,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8673,13 +8797,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8706,13 +8830,11 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8730,7 +8852,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>45</v>
@@ -8745,7 +8867,7 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>52</v>
@@ -8771,7 +8893,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8794,13 +8916,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8827,14 +8949,16 @@
         <v>44</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>44</v>
@@ -8849,7 +8973,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>45</v>
@@ -8864,10 +8988,10 @@
         <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>52</v>
@@ -8890,7 +9014,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8913,13 +9037,13 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8970,7 +9094,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>45</v>
@@ -8985,10 +9109,10 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>52</v>
@@ -9011,7 +9135,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9034,13 +9158,13 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9067,16 +9191,14 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>44</v>
@@ -9091,7 +9213,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>45</v>
@@ -9106,10 +9228,10 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>52</v>
@@ -9132,7 +9254,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9155,13 +9277,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9188,14 +9310,16 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>44</v>
@@ -9210,7 +9334,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>45</v>
@@ -9225,10 +9349,10 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>52</v>
@@ -9251,7 +9375,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9274,13 +9398,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9307,16 +9431,14 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>44</v>
@@ -9331,7 +9453,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>45</v>
@@ -9346,10 +9468,10 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>52</v>
@@ -9372,7 +9494,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9395,13 +9517,13 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9428,14 +9550,14 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>44</v>
@@ -9450,7 +9572,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>45</v>
@@ -9465,10 +9587,10 @@
         <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>52</v>
@@ -9491,7 +9613,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9514,13 +9636,13 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9547,14 +9669,14 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>44</v>
@@ -9569,7 +9691,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>45</v>
@@ -9584,10 +9706,10 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>52</v>
@@ -9610,7 +9732,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9633,13 +9755,13 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>193</v>
+        <v>390</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9666,14 +9788,14 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>163</v>
+        <v>391</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>44</v>
@@ -9688,7 +9810,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>45</v>
@@ -9703,13 +9825,13 @@
         <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>52</v>
+        <v>394</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>52</v>
+        <v>395</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>52</v>
@@ -9729,7 +9851,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9752,13 +9874,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9785,11 +9907,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y70" t="s" s="2">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9807,7 +9931,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>45</v>
@@ -9822,13 +9946,13 @@
         <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>366</v>
+        <v>52</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>52</v>
@@ -9848,7 +9972,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9871,13 +9995,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9928,7 +10052,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>45</v>
@@ -9943,7 +10067,7 @@
         <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>371</v>
+        <v>52</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>52</v>
@@ -9969,7 +10093,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9992,13 +10116,13 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10034,7 +10158,7 @@
         <v>44</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>44</v>
@@ -10049,7 +10173,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>45</v>
@@ -10064,10 +10188,10 @@
         <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>52</v>
+        <v>406</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>52</v>
+        <v>407</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>52</v>
@@ -10090,7 +10214,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10113,13 +10237,13 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10146,16 +10270,14 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>44</v>
@@ -10170,7 +10292,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>45</v>
@@ -10185,10 +10307,10 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>52</v>
+        <v>413</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>52</v>
@@ -10211,7 +10333,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10234,13 +10356,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10267,11 +10389,13 @@
         <v>44</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y74" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>44</v>
@@ -10289,7 +10413,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>45</v>
@@ -10304,7 +10428,7 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>52</v>
@@ -10330,7 +10454,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10353,13 +10477,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>72</v>
+        <v>418</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10395,7 +10519,7 @@
         <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>44</v>
@@ -10410,7 +10534,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>45</v>
@@ -10425,10 +10549,10 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>52</v>
+        <v>421</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>52</v>
@@ -10451,7 +10575,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10474,13 +10598,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>386</v>
+        <v>115</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10507,16 +10631,14 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>44</v>
@@ -10531,7 +10653,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>45</v>
@@ -10546,10 +10668,10 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>52</v>
@@ -10567,130 +10689,11 @@
         <v>52</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X77" s="2"/>
-      <c r="Y77" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AQ77" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ77">
+  <autoFilter ref="A1:AQ76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10700,7 +10703,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
+++ b/docs/StructureDefinition-WhoCrSurveillanceDataDictionary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="425">
   <si>
     <t>Path</t>
   </si>
@@ -806,9 +806,6 @@
     <t>Healthcare worker facility details</t>
   </si>
   <si>
-    <t>165655</t>
-  </si>
-  <si>
     <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.workFacility.country</t>
   </si>
   <si>
@@ -828,6 +825,9 @@
     <t>80437-7</t>
   </si>
   <si>
+    <t>165655</t>
+  </si>
+  <si>
     <t>WhoCrSurveillanceDataDictionary.exposure.patientInfo.hcw.workFacility.city</t>
   </si>
   <si>
@@ -1080,9 +1080,6 @@
   </si>
   <si>
     <t>If the patient has had contact with a confirmed case in the 14 days prior to symptom onset, explain contact setting</t>
-  </si>
-  <si>
-    <t>http://openhie.github.io/covid-19/ValueSet/WhoCrValueSetContactSetting</t>
   </si>
   <si>
     <t xml:space="preserve">http://loinc.org#81267-7
@@ -6229,7 +6226,7 @@
         <v>52</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>52</v>
@@ -6249,7 +6246,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6275,10 +6272,10 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6312,43 +6309,43 @@
         <v>85</v>
       </c>
       <c r="Z40" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AA40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>52</v>
@@ -8198,7 +8195,7 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>338</v>
@@ -8231,14 +8228,16 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>44</v>
@@ -8268,10 +8267,10 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>52</v>
@@ -8294,7 +8293,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8320,10 +8319,10 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8357,40 +8356,40 @@
         <v>85</v>
       </c>
       <c r="Z57" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AA57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="AK57" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>52</v>
@@ -8413,7 +8412,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8439,10 +8438,10 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8493,7 +8492,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>45</v>
@@ -8534,7 +8533,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8560,10 +8559,10 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8594,58 +8593,58 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
+      <c r="AK59" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>44</v>
@@ -8653,7 +8652,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8679,10 +8678,10 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8718,40 +8717,40 @@
         <v>44</v>
       </c>
       <c r="Z60" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AA60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>52</v>
@@ -8774,7 +8773,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8800,10 +8799,10 @@
         <v>115</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8852,7 +8851,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>45</v>
@@ -8867,7 +8866,7 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>52</v>
@@ -8893,7 +8892,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8919,10 +8918,10 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8973,7 +8972,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>45</v>
@@ -8988,7 +8987,7 @@
         <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>161</v>
@@ -9014,7 +9013,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9040,10 +9039,10 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9094,7 +9093,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>45</v>
@@ -9135,7 +9134,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9161,10 +9160,10 @@
         <v>115</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9213,7 +9212,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>45</v>
@@ -9228,7 +9227,7 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>173</v>
@@ -9254,7 +9253,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9280,10 +9279,10 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9334,7 +9333,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>45</v>
@@ -9349,7 +9348,7 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>180</v>
@@ -9375,7 +9374,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9404,7 +9403,7 @@
         <v>183</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9453,7 +9452,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>45</v>
@@ -9468,7 +9467,7 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>187</v>
@@ -9494,7 +9493,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9523,7 +9522,7 @@
         <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9572,7 +9571,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>45</v>
@@ -9587,7 +9586,7 @@
         <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>194</v>
@@ -9613,7 +9612,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9642,7 +9641,7 @@
         <v>197</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9691,7 +9690,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>45</v>
@@ -9706,7 +9705,7 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>201</v>
@@ -9732,7 +9731,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9758,10 +9757,10 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9792,46 +9791,46 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z69" t="s" s="2">
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AA69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
+      <c r="AK69" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>52</v>
@@ -9851,7 +9850,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9877,10 +9876,10 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9931,7 +9930,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>45</v>
@@ -9946,7 +9945,7 @@
         <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>52</v>
@@ -9972,7 +9971,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9998,10 +9997,10 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10052,7 +10051,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>45</v>
@@ -10093,7 +10092,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10119,10 +10118,10 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10158,40 +10157,40 @@
         <v>44</v>
       </c>
       <c r="Z72" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AA72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
+      <c r="AK72" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>52</v>
@@ -10214,7 +10213,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10240,10 +10239,10 @@
         <v>115</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10274,43 +10273,43 @@
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z73" t="s" s="2">
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AA73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="AK73" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>52</v>
@@ -10333,7 +10332,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10359,10 +10358,10 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10413,7 +10412,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>45</v>
@@ -10454,7 +10453,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10477,13 +10476,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10519,40 +10518,40 @@
         <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AA75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
+      <c r="AK75" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>52</v>
@@ -10575,7 +10574,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10601,10 +10600,10 @@
         <v>115</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10638,7 +10637,7 @@
         <v>165</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>44</v>
@@ -10653,7 +10652,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>45</v>
@@ -10668,10 +10667,10 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>52</v>
